--- a/take-out_weekly_report.xlsx
+++ b/take-out_weekly_report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\法国\数据分析\github_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\take-out-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E224524C-C341-4F7E-9876-19F66995AFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF9BEB7-5E42-4D46-B3BF-87F29DB9ACEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="888" windowWidth="22104" windowHeight="11412" activeTab="1" xr2:uid="{29FDAAA9-1590-4A06-8E5B-95B24933B4D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{29FDAAA9-1590-4A06-8E5B-95B24933B4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="original data" sheetId="3" r:id="rId1"/>
@@ -354,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Merchants received</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Valid orders</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,6 +411,10 @@
   </si>
   <si>
     <t>Cost in RMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merchants revenue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1310,6 +1310,12 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1320,12 +1326,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>17</v>
@@ -1813,7 +1813,7 @@
         <v>19</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>21</v>
@@ -1825,7 +1825,7 @@
         <v>23</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>24</v>
@@ -43363,8 +43363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2334CD6B-5FB4-48D6-99B2-5EE0B7A1D36E}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43381,55 +43381,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="48">
+      <c r="A1" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="44">
         <v>44053</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="48">
+      <c r="D1" s="44">
         <v>44059</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="A2" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="18">
       <c r="A4" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.6">
       <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>32</v>
@@ -43458,20 +43458,20 @@
     </row>
     <row r="7" spans="1:13" ht="18">
       <c r="A7" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="43">
+        <v>81</v>
+      </c>
+      <c r="G7" s="45">
         <f>IF($H$5="all",SUMIFS(INDEX('original data'!$A:$X,0,MATCH("GMV",'original data'!$1:$1,0)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&gt;="&amp;(DATE(YEAR(A13),MONTH(A13),1)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&lt;="&amp;(weekly_report!$A19)),SUMIFS(INDEX('original data'!$A:$X,0,MATCH("GMV",'original data'!$1:$1,0)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&gt;="&amp;(DATE(YEAR(A13),MONTH(A13),1)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&lt;="&amp;(weekly_report!$A19),INDEX('original data'!$A:$X,0,MATCH("platform",'original data'!$1:$1,0)),weekly_report!$H$5))/$H$8</f>
         <v>0.50107279999999998</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>69</v>
@@ -43512,11 +43512,11 @@
     </row>
     <row r="11" spans="1:13" ht="18">
       <c r="A11" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -43530,7 +43530,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>35</v>
@@ -43813,11 +43813,11 @@
     </row>
     <row r="23" spans="1:10" ht="18">
       <c r="A23" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -43828,7 +43828,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>21</v>
@@ -44243,7 +44243,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{6E59C826-932D-462A-9B37-8446734F2867}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{3BFCC7D2-4479-400B-9C23-8A7EC22033DC}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -44254,8 +44254,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>weekly_report!G25:G31</xm:f>
-              <xm:sqref>F6</xm:sqref>
+              <xm:f>weekly_report!C25:C31</xm:f>
+              <xm:sqref>B6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -44275,7 +44275,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{3BFCC7D2-4479-400B-9C23-8A7EC22033DC}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{6E59C826-932D-462A-9B37-8446734F2867}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -44286,8 +44286,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>weekly_report!C25:C31</xm:f>
-              <xm:sqref>B6</xm:sqref>
+              <xm:f>weekly_report!G25:G31</xm:f>
+              <xm:sqref>F6</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/take-out_weekly_report.xlsx
+++ b/take-out_weekly_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\take-out-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF9BEB7-5E42-4D46-B3BF-87F29DB9ACEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BFD6C9-4FA2-410E-B3FB-F076435DB7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{29FDAAA9-1590-4A06-8E5B-95B24933B4D5}"/>
   </bookViews>
@@ -1316,6 +1316,9 @@
     <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1323,9 +1326,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -43361,10 +43361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2334CD6B-5FB4-48D6-99B2-5EE0B7A1D36E}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43393,9 +43393,13 @@
       <c r="D1" s="44">
         <v>44059</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="47" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.8" customHeight="1">
+      <c r="A2" s="48" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="48"/>
@@ -43420,17 +43424,27 @@
       <c r="A4" s="36" t="s">
         <v>80</v>
       </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="15.6">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="8" t="s">
         <v>32</v>
       </c>
@@ -43443,14 +43457,17 @@
         <f>C32</f>
         <v>7220</v>
       </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="38">
         <f>E32</f>
         <v>6.7867036011080337E-2</v>
       </c>
+      <c r="D6" s="10"/>
       <c r="E6" s="38">
         <f>G32</f>
         <v>0.21020408163265306</v>
       </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
@@ -43460,22 +43477,30 @@
       <c r="A7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="46">
         <f>IF($H$5="all",SUMIFS(INDEX('original data'!$A:$X,0,MATCH("GMV",'original data'!$1:$1,0)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&gt;="&amp;(DATE(YEAR(A13),MONTH(A13),1)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&lt;="&amp;(weekly_report!$A19)),SUMIFS(INDEX('original data'!$A:$X,0,MATCH("GMV",'original data'!$1:$1,0)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&gt;="&amp;(DATE(YEAR(A13),MONTH(A13),1)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&lt;="&amp;(weekly_report!$A19),INDEX('original data'!$A:$X,0,MATCH("platform",'original data'!$1:$1,0)),weekly_report!$H$5))/$H$8</f>
         <v>0.50107279999999998</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D8" s="10"/>
       <c r="E8" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="15" t="s">
         <v>34</v>
       </c>
@@ -43509,15 +43534,22 @@
         <f>E9/(IF($H$5="all",SUMIFS(INDEX('original data'!$A:$X,0,MATCH("merchants_revenue",'original data'!$1:$1,0)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&gt;="&amp;(weekly_report!$A13-7),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&lt;="&amp;(weekly_report!$A19-7)),SUMIFS(INDEX('original data'!$A:$X,0,MATCH("merchants_revenue",'original data'!$1:$1,0)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&gt;="&amp;(weekly_report!$A13-7),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&lt;="&amp;(weekly_report!$A19-7),INDEX('original data'!$A:$X,0,MATCH("platform",'original data'!$1:$1,0)),weekly_report!$H$5))/IF($H$5="all",SUMIFS(INDEX('original data'!$A:$X,0,MATCH("GMV",'original data'!$1:$1,0)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&gt;="&amp;(weekly_report!$A13-7),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&lt;="&amp;(weekly_report!$A19-7)),SUMIFS(INDEX('original data'!$A:$X,0,MATCH("GMV",'original data'!$1:$1,0)),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&gt;="&amp;(weekly_report!$A13-7),INDEX('original data'!$A:$X,0,MATCH($A$12,'original data'!$1:$1,0)),"&lt;="&amp;(weekly_report!$A19-7),INDEX('original data'!$A:$X,0,MATCH("platform",'original data'!$1:$1,0)),weekly_report!$H$5)))-1</f>
         <v>0.15053970592705168</v>
       </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="18">
       <c r="A11" s="36" t="s">
         <v>82</v>
       </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="7"/>
       <c r="D11" s="42" t="s">
         <v>84</v>
       </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="32" t="s">
@@ -43811,14 +43843,39 @@
         <v>65.951047619047614</v>
       </c>
     </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="45"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="45"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
     <row r="23" spans="1:10" ht="18">
       <c r="A23" s="36" t="s">
         <v>83</v>
       </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="7"/>
       <c r="D23" s="42" t="s">
         <v>84</v>
       </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="32" t="s">
@@ -44114,8 +44171,19 @@
         <v>4.2171249671473503E-2</v>
       </c>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:19">
       <c r="G33" s="6"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="48" spans="7:19">
+      <c r="L48" s="45"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -44124,7 +44192,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G7">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -44138,27 +44206,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:H19">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$C13&lt;AVERAGE($C$13:$C$19)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{58D93D07-29CB-4B68-9ACE-7C6AF65EC8E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{4E264394-720A-49F5-B466-85068BDB9970}">
       <formula1>"all,meituan,eleme"</formula1>
     </dataValidation>
   </dataValidations>
@@ -44183,7 +44251,7 @@
           <xm:sqref>G7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{266F366B-1425-402D-B325-D0865B9CBF27}">
+          <x14:cfRule type="iconSet" priority="14" id="{266F366B-1425-402D-B325-D0865B9CBF27}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -44202,7 +44270,7 @@
           <xm:sqref>B9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{20D41BBF-5F9D-4F4B-8DD8-8472A90CFEDE}">
+          <x14:cfRule type="iconSet" priority="12" id="{20D41BBF-5F9D-4F4B-8DD8-8472A90CFEDE}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -44221,7 +44289,7 @@
           <xm:sqref>D9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{0868B576-1A1D-41D0-836E-3A5BCC35C619}">
+          <x14:cfRule type="iconSet" priority="10" id="{0868B576-1A1D-41D0-836E-3A5BCC35C619}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
